--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/GPR/std.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/GPR/std.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="std" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="std" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -464,21 +464,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.02760703005160541</t>
+          <t>0.02760703005160943</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.03157438311080361</t>
+          <t>0.03157438311080536</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.030711106297223904</t>
+          <t>0.030711106297222096</t>
         </is>
       </c>
     </row>
@@ -492,14 +492,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.024384523104306534</t>
+          <t>0.024384523104304254</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.023689296199131675</t>
+          <t>0.02368929619912933</t>
         </is>
       </c>
     </row>
@@ -527,28 +527,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.03156703241003287</t>
+          <t>0.0315670324100276</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.03156419812311761</t>
+          <t>0.031564198123121126</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.03152734246766244</t>
+          <t>0.0315273424676642</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.03153439797252031</t>
+          <t>0.031534397972522075</t>
         </is>
       </c>
     </row>
@@ -562,28 +562,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.03158013783527483</t>
+          <t>0.0315801378352801</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.024031914109506024</t>
+          <t>0.024031914109501406</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.01913146170991014</t>
+          <t>0.019131461709918845</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.031594754132788234</t>
+          <t>0.03159475413278647</t>
         </is>
       </c>
     </row>
@@ -604,49 +604,49 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.029669160802331583</t>
+          <t>0.029669160802327843</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0.028782602988907058</t>
+          <t>0.028782602988908987</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0.028822793650671898</t>
+          <t>0.02882279365067575</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.027646619785393418</t>
+          <t>0.027646619785397435</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0.03160692664648132</t>
+          <t>0.031606926646483076</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0.031550398830514206</t>
+          <t>0.03155039883051949</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.024487898826278925</t>
+          <t>0.02448789882628119</t>
         </is>
       </c>
     </row>
@@ -667,35 +667,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0.018059655366589832</t>
+          <t>0.01805965536658676</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0.02611827086939084</t>
+          <t>0.02611827086938659</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.031538195451224896</t>
+          <t>0.03153819545122665</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0.031359739298308216</t>
+          <t>0.03135973929829582</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0.02800318266907213</t>
+          <t>0.0280031826690642</t>
         </is>
       </c>
     </row>
@@ -709,49 +709,49 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0.026490352988780184</t>
+          <t>0.02649035298878228</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0.02976834543461702</t>
+          <t>0.029768345434615155</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0.028693718479082534</t>
+          <t>0.028693718479086402</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0.031073970779478325</t>
+          <t>0.031073970779472965</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0.030888114899356802</t>
+          <t>0.030888114899369382</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0.03148957326144222</t>
+          <t>0.031489573261435165</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0.03160090729146999</t>
+          <t>0.031600907291478776</t>
         </is>
       </c>
     </row>
@@ -765,35 +765,35 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0.022212526834443375</t>
+          <t>0.02221252683444837</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.029317039354623372</t>
+          <t>0.029317039354617692</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0.024089840268563246</t>
+          <t>0.02408984026856555</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0.024556275179744576</t>
+          <t>0.024556275179749096</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0.025593196998431416</t>
+          <t>0.025593196998433588</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0.03159950052361631</t>
+          <t>0.031599500523612795</t>
         </is>
       </c>
     </row>
@@ -821,14 +821,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0.024748098609451333</t>
+          <t>0.02474809860945582</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0.025585972090751554</t>
+          <t>0.025585972090755894</t>
         </is>
       </c>
     </row>
@@ -842,84 +842,84 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0.03157640867886217</t>
+          <t>0.03157640867885865</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0.02457553809341916</t>
+          <t>0.024575538093425935</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0.030003340619433157</t>
+          <t>0.030003340619429456</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0.027506294004229975</t>
+          <t>0.027506294004221905</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0.025990540299147005</t>
+          <t>0.025990540299144868</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0.03133817039179646</t>
+          <t>0.031338170391803546</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0.030486915952580837</t>
+          <t>0.03048691595257355</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0.030975132380472604</t>
+          <t>0.03097513238048873</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0.02979062917641164</t>
+          <t>0.029790629176413504</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0.02200599493077874</t>
+          <t>0.022005994930781262</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0.027739555463188032</t>
+          <t>0.02773955546318403</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0.030986270733616914</t>
+          <t>0.030986270733620497</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0.03156721869656298</t>
+          <t>0.03156721869655595</t>
         </is>
       </c>
     </row>
@@ -947,42 +947,42 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0.03160374779147281</t>
+          <t>0.03160374779147984</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0.03157808174740572</t>
+          <t>0.03157808174740924</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0.031167548978429972</t>
+          <t>0.031167548978426413</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0.030631563429721377</t>
+          <t>0.030631563429710504</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0.031143170203066235</t>
+          <t>0.031143170203064455</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0.031346221639293036</t>
+          <t>0.0313462216392895</t>
         </is>
       </c>
     </row>
@@ -996,42 +996,42 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0.0316019988154393</t>
+          <t>0.031601998815441054</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0.029155520727856193</t>
+          <t>0.029155520727854288</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0.03160076872501532</t>
+          <t>0.03160076872502937</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0.03078808611922998</t>
+          <t>0.03078808611921916</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0.030795848674268215</t>
+          <t>0.03079584867427182</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0.03157526315392557</t>
+          <t>0.031575263153934365</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0.03159903043516294</t>
+          <t>0.03159903043515591</t>
         </is>
       </c>
     </row>
